--- a/Code/Results/Cases/Case_8_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_35/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.49058070805881</v>
+        <v>20.50865485056397</v>
       </c>
       <c r="C2">
-        <v>16.08704940277621</v>
+        <v>16.48111591842395</v>
       </c>
       <c r="D2">
-        <v>4.574280825329676</v>
+        <v>4.617681302905304</v>
       </c>
       <c r="E2">
-        <v>13.72669331192013</v>
+        <v>13.72540263619634</v>
       </c>
       <c r="F2">
-        <v>17.77503574514472</v>
+        <v>17.28520826596163</v>
       </c>
       <c r="G2">
-        <v>2.075152354009179</v>
+        <v>1.593501153357733</v>
       </c>
       <c r="H2">
-        <v>2.08558705206497</v>
+        <v>2.111909033034608</v>
       </c>
       <c r="I2">
-        <v>3.041281553945895</v>
+        <v>3.098329716692128</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.05112808337056</v>
+        <v>11.65618872418137</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.71967633320469</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>6.531008655920201</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.68943871451296</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.00142663444608</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>17.76506762439617</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>13.58486839455286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.1908519805542</v>
+        <v>19.23203538889966</v>
       </c>
       <c r="C3">
-        <v>15.16520201368529</v>
+        <v>15.48060858280735</v>
       </c>
       <c r="D3">
-        <v>4.407466435230058</v>
+        <v>4.418184775436087</v>
       </c>
       <c r="E3">
-        <v>13.09873064013018</v>
+        <v>13.15441163181855</v>
       </c>
       <c r="F3">
-        <v>17.27650712631631</v>
+        <v>16.81492805727124</v>
       </c>
       <c r="G3">
-        <v>2.079427632455777</v>
+        <v>1.044582997692047</v>
       </c>
       <c r="H3">
-        <v>1.871365905013557</v>
+        <v>1.914556484837533</v>
       </c>
       <c r="I3">
-        <v>2.877096387033715</v>
+        <v>2.965188608795343</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.24168370564337</v>
+        <v>11.84119729108229</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.91573319824817</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>6.628322367915342</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.62636641285566</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>13.83668445628898</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>16.69282802744674</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>13.42769494683026</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.34517067086674</v>
+        <v>18.40176196800154</v>
       </c>
       <c r="C4">
-        <v>14.57372255808376</v>
+        <v>14.83836886024988</v>
       </c>
       <c r="D4">
-        <v>4.301696371738867</v>
+        <v>4.291203501220758</v>
       </c>
       <c r="E4">
-        <v>12.69625370226095</v>
+        <v>12.7896043225641</v>
       </c>
       <c r="F4">
-        <v>16.97410057904003</v>
+        <v>16.52540728463041</v>
       </c>
       <c r="G4">
-        <v>2.082138980681914</v>
+        <v>1.381791353332915</v>
       </c>
       <c r="H4">
-        <v>1.735298102582469</v>
+        <v>1.789114651303912</v>
       </c>
       <c r="I4">
-        <v>2.773571266496664</v>
+        <v>2.881365316176491</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.36415866621238</v>
+        <v>11.95774930964684</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.03986042874839</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>6.710373990459438</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.93916916155229</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13.74275623087894</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>15.99926843596559</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>13.33442417445913</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.987902642935</v>
+        <v>18.05113996987149</v>
       </c>
       <c r="C5">
-        <v>14.33822135315962</v>
+        <v>14.58126193310197</v>
       </c>
       <c r="D5">
-        <v>4.259627267865036</v>
+        <v>4.240191404875064</v>
       </c>
       <c r="E5">
-        <v>12.52613388264276</v>
+        <v>12.63565107890277</v>
       </c>
       <c r="F5">
-        <v>16.84120767064567</v>
+        <v>16.39698329408846</v>
       </c>
       <c r="G5">
-        <v>2.083271871165754</v>
+        <v>1.528186945712715</v>
       </c>
       <c r="H5">
-        <v>1.678555109279672</v>
+        <v>1.736790390789842</v>
       </c>
       <c r="I5">
-        <v>2.731231985498585</v>
+        <v>2.847442800275573</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.40911622970606</v>
+        <v>12.00013805733847</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.08589646468354</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>6.746166030141502</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.65235178846623</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13.69810282307796</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>15.70960263768884</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>13.28933489502238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.92703490734012</v>
+        <v>17.99143337061374</v>
       </c>
       <c r="C6">
-        <v>14.31323771156801</v>
+        <v>14.5522338338582</v>
       </c>
       <c r="D6">
-        <v>4.254852055264971</v>
+        <v>4.233888077803956</v>
       </c>
       <c r="E6">
-        <v>12.49525813636712</v>
+        <v>12.60766018796745</v>
       </c>
       <c r="F6">
-        <v>16.80607603919211</v>
+        <v>16.36297413144141</v>
       </c>
       <c r="G6">
-        <v>2.083468506128842</v>
+        <v>1.553632619268326</v>
       </c>
       <c r="H6">
-        <v>1.668897142997246</v>
+        <v>1.727892105015808</v>
       </c>
       <c r="I6">
-        <v>2.72502495686223</v>
+        <v>2.842949329517933</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.40900745929505</v>
+        <v>12.00011429540876</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.08690707713354</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>6.748709006655242</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.60641482057005</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13.68081224193273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>15.66308714030487</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>13.27226412633243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.33821726112408</v>
+        <v>18.39487220237738</v>
       </c>
       <c r="C7">
-        <v>14.60938649307108</v>
+        <v>14.85139070987002</v>
       </c>
       <c r="D7">
-        <v>4.307247249019803</v>
+        <v>4.308028473251778</v>
       </c>
       <c r="E7">
-        <v>12.68760572910474</v>
+        <v>12.78152480619464</v>
       </c>
       <c r="F7">
-        <v>16.93677438716526</v>
+        <v>16.42711682421618</v>
       </c>
       <c r="G7">
-        <v>2.082173355303448</v>
+        <v>1.487642634504009</v>
       </c>
       <c r="H7">
-        <v>1.734096425065039</v>
+        <v>1.787056519510972</v>
       </c>
       <c r="I7">
-        <v>2.775002335616373</v>
+        <v>2.882363355455446</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.34380745764623</v>
+        <v>11.9165859348164</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.00216269774919</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>6.687384737190219</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.94121595194204</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13.71499890685314</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>15.99788873595728</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>13.26055010093242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.04967420054241</v>
+        <v>20.07531712967355</v>
       </c>
       <c r="C8">
-        <v>15.82254246417902</v>
+        <v>16.12278211764426</v>
       </c>
       <c r="D8">
-        <v>4.525325253035482</v>
+        <v>4.594563525666975</v>
       </c>
       <c r="E8">
-        <v>13.5058496868175</v>
+        <v>13.52441538519303</v>
       </c>
       <c r="F8">
-        <v>17.55712344640148</v>
+        <v>16.88073727071125</v>
       </c>
       <c r="G8">
-        <v>2.076632435931012</v>
+        <v>1.852987129568213</v>
       </c>
       <c r="H8">
-        <v>2.012115541709421</v>
+        <v>2.041232453856103</v>
       </c>
       <c r="I8">
-        <v>2.987319966802782</v>
+        <v>3.051792172623592</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.0877455420518</v>
+        <v>11.62131271009089</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.70494296241124</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>6.491556105089276</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.33728374142514</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13.90781204055614</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>17.39984616242164</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>13.34344252890416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.03167769700722</v>
+        <v>23.00518130417333</v>
       </c>
       <c r="C9">
-        <v>17.93387953753846</v>
+        <v>18.40687902534343</v>
       </c>
       <c r="D9">
-        <v>4.914767844512884</v>
+        <v>5.066305053631405</v>
       </c>
       <c r="E9">
-        <v>14.98354410285573</v>
+        <v>14.87447679157139</v>
       </c>
       <c r="F9">
-        <v>18.85712299813794</v>
+        <v>18.04734612687918</v>
       </c>
       <c r="G9">
-        <v>2.066401348436834</v>
+        <v>2.987072216591125</v>
       </c>
       <c r="H9">
-        <v>2.522884035080215</v>
+        <v>2.510599190171589</v>
       </c>
       <c r="I9">
-        <v>3.380503853831462</v>
+        <v>3.369208464078894</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.6697810498273</v>
+        <v>11.18056396618251</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.25396977326122</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>6.361556815141577</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.78959642985252</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14.39186569307988</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>19.86951854212437</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>13.75023957608916</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.05506518132978</v>
+        <v>24.99506658326671</v>
       </c>
       <c r="C10">
-        <v>19.39667855088461</v>
+        <v>19.86980089909682</v>
       </c>
       <c r="D10">
-        <v>5.214207753498289</v>
+        <v>5.477069779749143</v>
       </c>
       <c r="E10">
-        <v>15.47093396552002</v>
+        <v>15.28370227114971</v>
       </c>
       <c r="F10">
-        <v>19.64753395824302</v>
+        <v>18.42818323762146</v>
       </c>
       <c r="G10">
-        <v>2.059386590672009</v>
+        <v>4.831092384035867</v>
       </c>
       <c r="H10">
-        <v>2.855416534158389</v>
+        <v>2.809763457146769</v>
       </c>
       <c r="I10">
-        <v>3.654720246714401</v>
+        <v>3.585566452462567</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.30074568587889</v>
+        <v>10.6778621366088</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.82168325089822</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>6.195023380009237</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.16211517609963</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14.64562345844567</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>21.23401279815496</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13.69415113680576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.45805596489591</v>
+        <v>26.39347268890901</v>
       </c>
       <c r="C11">
-        <v>20.28187510696016</v>
+        <v>20.45992378885366</v>
       </c>
       <c r="D11">
-        <v>5.609477221363658</v>
+        <v>6.010017677760398</v>
       </c>
       <c r="E11">
-        <v>11.66565776799887</v>
+        <v>11.44526991702755</v>
       </c>
       <c r="F11">
-        <v>18.62249499532093</v>
+        <v>16.83475183610773</v>
       </c>
       <c r="G11">
-        <v>2.057182133497154</v>
+        <v>8.313410756043925</v>
       </c>
       <c r="H11">
-        <v>3.472336557068056</v>
+        <v>3.421988502237466</v>
       </c>
       <c r="I11">
-        <v>3.750860203424996</v>
+        <v>3.655138982277734</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.4103271703567</v>
+        <v>9.760993738691335</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.256822980381626</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>5.391553166320374</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.52279203421257</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13.64053642632048</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>19.54856893336931</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>12.27177651631879</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.24192964274436</v>
+        <v>27.17997832384974</v>
       </c>
       <c r="C12">
-        <v>20.6895896181715</v>
+        <v>20.67577253574166</v>
       </c>
       <c r="D12">
-        <v>5.882054137035534</v>
+        <v>6.34076307653511</v>
       </c>
       <c r="E12">
-        <v>9.232647254123897</v>
+        <v>8.97978406547236</v>
       </c>
       <c r="F12">
-        <v>17.61886825152475</v>
+        <v>15.63047887603541</v>
       </c>
       <c r="G12">
-        <v>2.056602307803951</v>
+        <v>10.09139549781277</v>
       </c>
       <c r="H12">
-        <v>4.543271203715382</v>
+        <v>4.502863172712162</v>
       </c>
       <c r="I12">
-        <v>3.777453395126078</v>
+        <v>3.672707308366582</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.81599514665707</v>
+        <v>9.28670697462255</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.009981122971498</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>4.890314747199554</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.83076674852286</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12.76506742871595</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>17.82881589958629</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>11.27879230366435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.61971741538336</v>
+        <v>27.56517486825077</v>
       </c>
       <c r="C13">
-        <v>20.81320000305346</v>
+        <v>20.7104418960064</v>
       </c>
       <c r="D13">
-        <v>6.088831838111356</v>
+        <v>6.515781116660947</v>
       </c>
       <c r="E13">
-        <v>8.413221379231558</v>
+        <v>8.169181461333675</v>
       </c>
       <c r="F13">
-        <v>16.49708527274251</v>
+        <v>14.71335472460452</v>
       </c>
       <c r="G13">
-        <v>2.057265442871664</v>
+        <v>9.666909732917592</v>
       </c>
       <c r="H13">
-        <v>5.757161043990553</v>
+        <v>5.728312256108644</v>
       </c>
       <c r="I13">
-        <v>3.754823606463811</v>
+        <v>3.656364803037857</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.39642789711881</v>
+        <v>9.081258786866055</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.919927402139052</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>4.609690924790044</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.95002186864729</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11.88805331070163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.93696629584167</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>10.60093399044534</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.7060171686402</v>
+        <v>27.65867460907216</v>
       </c>
       <c r="C14">
-        <v>20.78272242400772</v>
+        <v>20.66100290508814</v>
       </c>
       <c r="D14">
-        <v>6.207843283716971</v>
+        <v>6.570895172338644</v>
       </c>
       <c r="E14">
-        <v>9.052808071184183</v>
+        <v>8.854054131299041</v>
       </c>
       <c r="F14">
-        <v>15.63975345186505</v>
+        <v>14.1767694596331</v>
       </c>
       <c r="G14">
-        <v>2.058282513793425</v>
+        <v>8.397014233911833</v>
       </c>
       <c r="H14">
-        <v>6.655836039343245</v>
+        <v>6.634168263801716</v>
       </c>
       <c r="I14">
-        <v>3.717924849398298</v>
+        <v>3.630722319482401</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.196769793822474</v>
+        <v>9.036853261443424</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.904391331182403</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>4.510296656484588</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.52323043512929</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11.26824227325218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.50896957024497</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>10.24967548069671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.63926995335498</v>
+        <v>27.59481229339434</v>
       </c>
       <c r="C15">
-        <v>20.72619910849718</v>
+        <v>20.61862112890529</v>
       </c>
       <c r="D15">
-        <v>6.224491538114772</v>
+        <v>6.554182201239703</v>
       </c>
       <c r="E15">
-        <v>9.341456770413005</v>
+        <v>9.162225180315351</v>
       </c>
       <c r="F15">
-        <v>15.39457616875502</v>
+        <v>14.0851085857961</v>
       </c>
       <c r="G15">
-        <v>2.058823320821139</v>
+        <v>7.678004827374424</v>
       </c>
       <c r="H15">
-        <v>6.861288951263954</v>
+        <v>6.84182680957976</v>
       </c>
       <c r="I15">
-        <v>3.698673519702619</v>
+        <v>3.617931754636804</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.17644670192043</v>
+        <v>9.057000619694071</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.913634546434267</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>4.516356248275079</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.13314015532643</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11.11050240527449</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.1213730235793</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>10.21047634118237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.77160759337677</v>
+        <v>26.73856180886053</v>
       </c>
       <c r="C16">
-        <v>20.13307934827707</v>
+        <v>20.18670114140918</v>
       </c>
       <c r="D16">
-        <v>6.071237787358836</v>
+        <v>6.255429078977587</v>
       </c>
       <c r="E16">
-        <v>9.168486315838507</v>
+        <v>9.055344009608268</v>
       </c>
       <c r="F16">
-        <v>15.20259908658612</v>
+        <v>14.50621603513688</v>
       </c>
       <c r="G16">
-        <v>2.061685387447238</v>
+        <v>4.48643568165387</v>
       </c>
       <c r="H16">
-        <v>6.590020175442516</v>
+        <v>6.577499869798946</v>
       </c>
       <c r="I16">
-        <v>3.587701659607928</v>
+        <v>3.538513322322613</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.42622661136993</v>
+        <v>9.351393127599978</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.053278671373231</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>4.784019371840518</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.80165006871679</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11.14560179153083</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>13.8142533536147</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>10.67839655439025</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.04073157117826</v>
+        <v>26.01311815665542</v>
       </c>
       <c r="C17">
-        <v>19.68615947653333</v>
+        <v>19.84971664676606</v>
       </c>
       <c r="D17">
-        <v>5.885756904678471</v>
+        <v>6.012650666241443</v>
       </c>
       <c r="E17">
-        <v>8.500731742999669</v>
+        <v>8.411103248016676</v>
       </c>
       <c r="F17">
-        <v>15.52783094240248</v>
+        <v>15.04936502232725</v>
       </c>
       <c r="G17">
-        <v>2.063355504463178</v>
+        <v>3.40022071084377</v>
       </c>
       <c r="H17">
-        <v>5.854717711666758</v>
+        <v>5.844962686265212</v>
       </c>
       <c r="I17">
-        <v>3.521952950813795</v>
+        <v>3.490221985357116</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.711337090671863</v>
+        <v>9.62017210103304</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.202598878798252</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5.030037890612075</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.34212224755285</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11.50394546139985</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.37126945024118</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>11.17925675309778</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.35953652807913</v>
+        <v>25.33195641271745</v>
       </c>
       <c r="C18">
-        <v>19.29600156434693</v>
+        <v>19.57297973040193</v>
       </c>
       <c r="D18">
-        <v>5.650375665950294</v>
+        <v>5.764653661115014</v>
       </c>
       <c r="E18">
-        <v>8.392318927342645</v>
+        <v>8.295872173060442</v>
       </c>
       <c r="F18">
-        <v>16.35346380486272</v>
+        <v>15.89513700967136</v>
       </c>
       <c r="G18">
-        <v>2.064089414940818</v>
+        <v>3.085286753758572</v>
       </c>
       <c r="H18">
-        <v>4.6889183752979</v>
+        <v>4.678904225045192</v>
       </c>
       <c r="I18">
-        <v>3.487814503735644</v>
+        <v>3.463092862897545</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.10669640609882</v>
+        <v>9.95255620571864</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.406399058931893</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>5.34135853609008</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.69678649223559</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12.19991517878082</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>15.743129920017</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>11.87361829107214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.77906759734515</v>
+        <v>24.74674263942676</v>
       </c>
       <c r="C19">
-        <v>19.05033066490242</v>
+        <v>19.44574575152246</v>
       </c>
       <c r="D19">
-        <v>5.410995321648131</v>
+        <v>5.537179517922096</v>
       </c>
       <c r="E19">
-        <v>10.23001022446688</v>
+        <v>10.11150526145837</v>
       </c>
       <c r="F19">
-        <v>17.45041266901079</v>
+        <v>16.90493435869598</v>
       </c>
       <c r="G19">
-        <v>2.063928594084904</v>
+        <v>3.065462895134743</v>
       </c>
       <c r="H19">
-        <v>3.454023086710833</v>
+        <v>3.43968947746854</v>
       </c>
       <c r="I19">
-        <v>3.491842528725488</v>
+        <v>3.467383981007147</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.58891538854891</v>
+        <v>10.33546255857168</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.650142551215076</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>5.707161726256245</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.59291591343776</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13.07633394938258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>17.65710051352101</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>12.66991895659299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.53739197923201</v>
+        <v>24.48645207483289</v>
       </c>
       <c r="C20">
-        <v>19.11931327242214</v>
+        <v>19.64991392444331</v>
       </c>
       <c r="D20">
-        <v>5.155382743268969</v>
+        <v>5.352358569288158</v>
       </c>
       <c r="E20">
-        <v>15.30607972017652</v>
+        <v>15.13893283067151</v>
       </c>
       <c r="F20">
-        <v>19.33598676593232</v>
+        <v>18.42302053172897</v>
       </c>
       <c r="G20">
-        <v>2.061256678148577</v>
+        <v>3.693503028788917</v>
       </c>
       <c r="H20">
-        <v>2.766115179300331</v>
+        <v>2.73213021025652</v>
       </c>
       <c r="I20">
-        <v>3.590244184485764</v>
+        <v>3.543289791653716</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.32546857768735</v>
+        <v>10.82474482792167</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.941144035216036</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>6.249285465035095</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.81313004309893</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14.4922772995808</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>20.89560840122671</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>13.78307750782294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.92261331333662</v>
+        <v>25.84553430296724</v>
       </c>
       <c r="C21">
-        <v>20.13996342695757</v>
+        <v>20.38457673526629</v>
       </c>
       <c r="D21">
-        <v>5.33014212195881</v>
+        <v>5.806133432824989</v>
       </c>
       <c r="E21">
-        <v>16.44915005463129</v>
+        <v>16.23314318519598</v>
       </c>
       <c r="F21">
-        <v>20.20787060299738</v>
+        <v>17.95618965685289</v>
       </c>
       <c r="G21">
-        <v>2.055791818342512</v>
+        <v>9.911662169715614</v>
       </c>
       <c r="H21">
-        <v>3.051482142544417</v>
+        <v>2.977934756917228</v>
       </c>
       <c r="I21">
-        <v>3.801778315196998</v>
+        <v>3.691330554879196</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.19759092016863</v>
+        <v>10.17673141033989</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.479053036350539</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>5.865628560292245</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.21597592337598</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14.91322529257632</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>22.24848354893439</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>13.13564278639993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.82109865763478</v>
+        <v>26.72923832080228</v>
       </c>
       <c r="C22">
-        <v>20.75897195938699</v>
+        <v>20.79930238892081</v>
       </c>
       <c r="D22">
-        <v>5.448916782742247</v>
+        <v>6.118494631936536</v>
       </c>
       <c r="E22">
-        <v>16.92307481203386</v>
+        <v>16.68385859096598</v>
       </c>
       <c r="F22">
-        <v>20.73413464728494</v>
+        <v>17.55941279908949</v>
       </c>
       <c r="G22">
-        <v>2.052321593707799</v>
+        <v>14.85291412913825</v>
       </c>
       <c r="H22">
-        <v>3.222850833921472</v>
+        <v>3.124934048363532</v>
       </c>
       <c r="I22">
-        <v>3.933535216326697</v>
+        <v>3.782603924203169</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.10750841006884</v>
+        <v>9.733464510276562</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.200541678143551</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>5.579047953191977</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.96121311262352</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15.16176531207983</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>22.95778957096366</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>12.63771776313127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.34711925619668</v>
+        <v>26.26257304557841</v>
       </c>
       <c r="C23">
-        <v>20.39616376562196</v>
+        <v>20.5873470973085</v>
       </c>
       <c r="D23">
-        <v>5.379627962878739</v>
+        <v>5.918745161981414</v>
       </c>
       <c r="E23">
-        <v>16.67727653349015</v>
+        <v>16.44723005583874</v>
       </c>
       <c r="F23">
-        <v>20.48812073498435</v>
+        <v>17.9405662922368</v>
       </c>
       <c r="G23">
-        <v>2.054151608739578</v>
+        <v>11.43534857982166</v>
       </c>
       <c r="H23">
-        <v>3.132049977339323</v>
+        <v>3.048411371338003</v>
       </c>
       <c r="I23">
-        <v>3.860727295356222</v>
+        <v>3.731837473936277</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.18040442933289</v>
+        <v>10.03576009534259</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.380214939952999</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>5.805915015531518</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.56126623755607</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15.05729649320667</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>22.58347270368113</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>13.03928605312915</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.46695729466387</v>
+        <v>24.4154079763893</v>
       </c>
       <c r="C24">
-        <v>19.02762625260362</v>
+        <v>19.57337615591977</v>
       </c>
       <c r="D24">
-        <v>5.11950425746999</v>
+        <v>5.315714505353589</v>
       </c>
       <c r="E24">
-        <v>15.70522461470626</v>
+        <v>15.53671376568626</v>
       </c>
       <c r="F24">
-        <v>19.50181048092072</v>
+        <v>18.58521159479369</v>
       </c>
       <c r="G24">
-        <v>2.061227079068103</v>
+        <v>3.668869863143321</v>
       </c>
       <c r="H24">
-        <v>2.781055719812739</v>
+        <v>2.747043612575018</v>
       </c>
       <c r="I24">
-        <v>3.585162949698743</v>
+        <v>3.536357486023625</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.43240536390846</v>
+        <v>10.91528566256192</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.999709437048329</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>6.332324145910649</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.99184804112299</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14.63151266885272</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>21.07677358216751</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>13.91724009499241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.26204452531429</v>
+        <v>22.24916302531231</v>
       </c>
       <c r="C25">
-        <v>17.44495669924905</v>
+        <v>17.89800918145072</v>
       </c>
       <c r="D25">
-        <v>4.822793869659043</v>
+        <v>4.937817957485204</v>
       </c>
       <c r="E25">
-        <v>14.58900433679148</v>
+        <v>14.51266457493419</v>
       </c>
       <c r="F25">
-        <v>18.44524294140716</v>
+        <v>17.75854946111619</v>
       </c>
       <c r="G25">
-        <v>2.069130027399134</v>
+        <v>2.468940822950391</v>
       </c>
       <c r="H25">
-        <v>2.387683835984714</v>
+        <v>2.387732945204391</v>
       </c>
       <c r="I25">
-        <v>3.279789522905817</v>
+        <v>3.291867749631232</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.73899712828896</v>
+        <v>11.29436718661061</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.37105395224911</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>6.373317413731107</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.16487075643727</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14.20771086759052</v>
+        <v>19.24425694583646</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>13.65655130981777</v>
       </c>
     </row>
   </sheetData>
